--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -32,10 +32,10 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="1.679cm"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.745cm"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="5.913cm"/>
     </style:style>
     <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="14.815cm"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="20.241cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.413cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -46,6 +46,9 @@
     <style:style style:name="ro3" style:family="table-row">
       <style:table-row-properties style:row-height="0.497cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="0.542cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Login">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
@@ -59,13 +62,13 @@
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="Liberation Serif" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Liberation Serif" style:font-size-asian="10pt" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="5.65000009536743pt" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:color="#0f7003" style:text-outline="false" style:text-line-through-style="none" style:font-name="Menlo" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Menlo" style:font-size-asian="12pt" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="6.80000019073486pt" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="bold" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
-      <style:text-properties fo:color="#0f7003" style:font-name="Menlo" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-weight="bold" style:font-name-asian="Menlo" style:font-size-asian="12pt" style:language-asian="en" style:country-asian="US" style:font-weight-asian="bold" style:font-name-complex="Menlo" style:font-size-complex="6.80000019073486pt" style:language-complex="en" style:country-complex="US" style:font-weight-complex="bold"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -104,44 +107,77 @@
       <table:table table:name="XPath" table:style-name="ta3" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce3"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce4"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1022" table:default-cell-style-name="Default"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>login page</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="string">
             <text:p>username</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
+          <table:table-cell office:value-type="string">
+            <text:p>//INPUT[@type='text']"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="string">
             <text:p>verify me </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div/div[2]/div/form/div[3]/button"</text:p>
+          </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="string">
             <text:p>password </text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
+          <table:table-cell office:value-type="string">
+            <text:p>//INPUT[@type='password']"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="string">
             <text:p>login button </text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div/div[2]/div/form/div[4]/button[1]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="string">
             <text:p>logout previous</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div/div[2]/div[2]/div[2]/button</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>Profile Menu</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
+          <table:table-cell office:value-type="string">
+            <text:p>(//I[@class='fa fa-caret-down'])[2]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>click on logout</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>//SPAN[@class='node_modules-fk-cs-dropdown-dropdown_options'][text()='Logout']</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
       </table:table>
     </office:spreadsheet>
@@ -152,11 +188,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2018-02-07T13:10:10</dc:date>
+    <dc:date>2018-02-08T12:29:36</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>PT4M57S</meta:editing-duration>
-    <meta:editing-cycles>3</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="3" meta:cell-count="10" meta:object-count="0"/>
+    <meta:editing-duration>PT24M46S</meta:editing-duration>
+    <meta:editing-cycles>15</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="3" meta:cell-count="19" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -167,8 +203,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">3345</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">838</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">26055</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">3924</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -206,8 +242,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="XPath">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">15</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -343,68 +379,64 @@
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N5109P0"/>
     </number:number-style>
-    <number:number-style style:name="N5110P0" style:volatile="true" number:language="en" number:country="IN">
-      <number:text> </number:text>
+    <number:number-style style:name="N5113P0" style:volatile="true" number:language="en" number:country="IN">
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5110P1" style:volatile="true" number:language="en" number:country="IN">
+    <number:number-style style:name="N5113P1" style:volatile="true" number:language="en" number:country="IN">
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5110P2" style:volatile="true" number:language="en" number:country="IN">
+    <number:number-style style:name="N5113P2" style:volatile="true" number:language="en" number:country="IN">
       <number:text> - </number:text>
     </number:number-style>
-    <number:text-style style:name="N5110" number:language="en" number:country="IN">
-      <number:text> </number:text>
+    <number:text-style style:name="N5113" number:language="en" number:country="IN">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N5110P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N5110P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N5110P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N5113P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N5113P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N5113P2"/>
     </number:text-style>
-    <number:number-style style:name="N5111P0" style:volatile="true" number:language="en" number:country="IN">
+    <number:number-style style:name="N5117P0" style:volatile="true" number:language="en" number:country="IN">
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N5117P1" style:volatile="true" number:language="en" number:country="IN">
+      <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5111P1" style:volatile="true" number:language="en" number:country="IN">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N5111P2" style:volatile="true" number:language="en" number:country="IN">
+    <number:number-style style:name="N5117P2" style:volatile="true" number:language="en" number:country="IN">
       <number:text> -</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N5111" number:language="en" number:country="IN">
-      <number:text> </number:text>
+    <number:text-style style:name="N5117" number:language="en" number:country="IN">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N5111P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N5111P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N5111P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N5117P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N5117P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N5117P2"/>
     </number:text-style>
-    <number:time-style style:name="N5112" number:language="en" number:country="IN">
+    <number:time-style style:name="N5118" number:language="en" number:country="IN">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N5113" number:language="en" number:country="IN" number:truncate-on-overflow="false">
+    <number:time-style style:name="N5119" number:language="en" number:country="IN" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N5114" number:language="en" number:country="IN">
+    <number:time-style style:name="N5120" number:language="en" number:country="IN">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N5115" number:language="en" number:country="IN">
+    <number:number-style style:name="N5121" number:language="en" number:country="IN">
       <number:scientific-number number:decimal-places="1" number:min-integer-digits="3" number:min-exponent-digits="1"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -500,9 +532,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2018-02-07">07/02/2018</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2018-02-08">08/02/2018</text:date>
             , 
-            <text:time>13:10:10</text:time>
+            <text:time>12:29:36</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -19,8 +19,10 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="HelveticaNeue" svg:font-family="HelveticaNeue"/>
     <style:font-face style:name="Menlo" svg:font-family="Menlo"/>
     <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
+    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="Liberation Serif" svg:font-family="'Liberation Serif'" style:font-family-generic="roman" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Times New Roman" svg:font-family="'Times New Roman'" style:font-family-generic="swiss" style:font-pitch="variable"/>
@@ -29,13 +31,31 @@
   </office:font-face-decls>
   <office:automatic-styles>
     <style:style style:name="co1" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.635cm"/>
+    </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="4.14cm"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.679cm"/>
     </style:style>
-    <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="5.913cm"/>
-    </style:style>
-    <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="20.241cm"/>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="9.987cm"/>
+    </style:style>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="9.566cm"/>
+    </style:style>
+    <style:style style:name="co6" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="3.341cm"/>
+    </style:style>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="27.46cm"/>
+    </style:style>
+    <style:style style:name="co8" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="21.057cm"/>
+    </style:style>
+    <style:style style:name="co9" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="11.938cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.413cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -44,10 +64,13 @@
       <style:table-row-properties style:row-height="0.429cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="0.542cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro4" style:family="table-row">
       <style:table-row-properties style:row-height="0.497cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro4" style:family="table-row">
-      <style:table-row-properties style:row-height="0.542cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    <style:style style:name="ro5" style:family="table-row">
+      <style:table-row-properties style:row-height="0.43cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Login">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
@@ -62,13 +85,25 @@
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="HelveticaNeue" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="HelveticaNeue" style:font-size-asian="12pt" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="6.80000019073486pt" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="HelveticaNeue" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="HelveticaNeue" style:font-size-asian="12pt" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="HelveticaNeue" style:font-size-complex="6.80000019073486pt" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="Helvetica" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Helvetica" style:font-size-asian="12pt" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="6.80000019073486pt" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="Liberation Serif" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Liberation Serif" style:font-size-asian="10pt" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="5.65000009536743pt" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:color="#0f7003" style:text-outline="false" style:text-line-through-style="none" style:font-name="Menlo" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Menlo" style:font-size-asian="12pt" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="6.80000019073486pt" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="bold" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:color="#0f7003" style:font-name="Menlo" fo:font-size="12pt" fo:language="en" fo:country="US" fo:font-weight="bold" style:font-name-asian="Menlo" style:font-size-asian="12pt" style:language-asian="en" style:country-asian="US" style:font-weight-asian="bold" style:font-name-complex="Menlo" style:font-size-complex="6.80000019073486pt" style:language-complex="en" style:country-complex="US" style:font-weight-complex="bold"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -76,7 +111,9 @@
       <table:calculation-settings table:case-sensitive="false" table:automatic-find-labels="false" table:use-regular-expressions="false"/>
       <table:table table:name="Login" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="1022" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string">
             <text:p>username</text:p>
@@ -99,83 +136,504 @@
         </table:table-row>
       </table:table>
       <table:table table:name="OrderInfo" table:style-name="ta2" table:print="false">
-        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Default"/>
-        <table:table-row table:style-name="ro1">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="1022" table:default-cell-style-name="Default"/>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string">
+            <text:p>cashback</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109423037514652000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>NDR</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109353007890253000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>NDR Large</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109187889545342000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Grocery </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109514889146871000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>MPS </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109517621696221000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string">
+            <text:p>Dropship</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109438002728461000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Refund</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="string">
+            <text:p>OD109155976663100000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string">
+            <text:p>Dropship</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109097854718126000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>D+I</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD110071222434560000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Blacklisted</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109073869440644000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>ABB</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109682565867602000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string">
+            <text:p>Ecode</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109983203824783000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>ADLD</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD110052038171351000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>EGV</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD110016561299152000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Non</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>ACC13940991525886464</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Associate</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD109531763397348000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Priority</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>ACC13489448922404397</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string">
+            <text:p>Ffirst</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>AC1N99IHMC9E9AKW8SCEBE1SG38ZGKM3</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>AC</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD405621743018736000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>NDD</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string">
+            <text:p>OD110015036853930000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce3" office:value-type="string">
+            <text:p>BNPL</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string">
+            <text:p>ACC13518860262177453</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4" table:number-rows-repeated="3">
           <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>MPS - OD109517621696221000 </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>No range - OD508611132246620000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Service comments - OD109324035711537000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>CashBack Details - OD109423037514652000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>NDR - OD109353007890253000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Dropship and MPS - OD109097854718126000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Large Order - OD109187889545342000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Clawback - OD109999683584833000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>More Selector - OD108160812021315000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Replacement back from return - 11201075078648477883</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Blog Queue Incident - IN1712291215059494177(With No account id for email conversation test)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Dropship - OD109438002728461000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>Grocery </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell office:value-type="string">
+            <text:p>
+              Multiple Grocery orders - 
+              <text:a xlink:href="mailto:somnath.smp@gmail.com">‪somnath.smp@gmail.com</text:a>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>OD109663563195276000</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>OD109654062837325000 - with offers</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>OD111401472227234000, OD111390914002058000 Large</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
         </table:table-row>
       </table:table>
       <table:table table:name="XPath" table:style-name="ta3" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce4"/>
-        <table:table-column table:style-name="co1" table:number-columns-repeated="1022" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce7"/>
+        <table:table-column table:style-name="co8" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co9" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="1020" table:default-cell-style-name="Default"/>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>login page</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>Xpaths</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>username</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>//INPUT[@type='text']"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>verify me </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div/div[2]/div/form/div[3]/button"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>password </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>//INPUT[@type='password']"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>login button </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div/div[2]/div/form/div[4]/button[1]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>logout previous</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div/div[2]/div[2]/div[2]/button</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>Profile Menu</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>(//I[@class='fa fa-caret-down'])[2]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>click on logout</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>//SPAN[@class='node_modules-fk-cs-dropdown-dropdown_options'][text()='Logout']</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce2" office:value-type="string">
-            <text:p>login page</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell office:value-type="string">
-            <text:p>username</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>//INPUT[@type='text']"</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell office:value-type="string">
-            <text:p>verify me </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>/html/body/div[1]/div/div/div[2]/div/form/div[3]/button"</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell office:value-type="string">
-            <text:p>password </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>//INPUT[@type='password']"</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell office:value-type="string">
-            <text:p>login button </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>/html/body/div[1]/div/div/div[2]/div/form/div[4]/button[1]</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell office:value-type="string">
-            <text:p>logout previous</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>/html/body/div[1]/div/div/div[2]/div[2]/div[2]/button</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce3" office:value-type="string">
-            <text:p>Profile Menu</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>(//I[@class='fa fa-caret-down'])[2]</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro4">
-          <table:table-cell office:value-type="string">
-            <text:p>click on logout</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>//SPAN[@class='node_modules-fk-cs-dropdown-dropdown_options'][text()='Logout']</text:p>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>call to customer</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>call drop down</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div[2]/div/div/div/div[1]/div[2]/span/i</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>select campaign</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div[2]/div/div[2]/div[1]/div[1]/div/span[2]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>enter extension</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/input</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>call login</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div[3]/div/div[1]/div</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>assign yes</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[3]/div[1]/div/div/div[1]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>manual dial</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div/div[2]/div[3]/div/div/img</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>make a call</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div/div[2]/div[4]/div/div[1]/div/img</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>select number type</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div/div[2]/div[4]/div/div[2]/div/div[1]/div[1]/div[2]/div/div/div[1]/div[2]/span/i</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>select customer</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div/div[2]/div[4]/div/div[2]/div/div[1]/div[1]/div[2]/div[2]/div[1]/div[1]/div/span[2]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>enter phone number</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div/div[2]/div[4]/div/div[2]/div/div[1]/input</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>click on dial</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[1]/header/div[1]/div/div[2]/div/div/div/div/div[2]/div[4]/div/div[2]/div/div[1]/div[2]/div/div</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell office:value-type="string">
+            <text:p>new session</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>/html/body/div[1]/div/div[4]/div[1]/div/div[1]/div[1]/div[2]/div[2]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
@@ -188,11 +646,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2018-02-08T12:29:36</dc:date>
+    <dc:date>2018-02-08T14:39:12</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>PT24M46S</meta:editing-duration>
-    <meta:editing-cycles>15</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="3" meta:cell-count="19" meta:object-count="0"/>
+    <meta:editing-duration>PT2H34M22S</meta:editing-duration>
+    <meta:editing-cycles>28</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="3" meta:cell-count="104" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -203,15 +661,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">26055</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">3924</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">30685</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">10666</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Login">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">28</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -222,12 +680,12 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">110</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="OrderInfo">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -238,12 +696,12 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">110</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="XPath">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -252,16 +710,16 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">3</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">110</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">XPath</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">640</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">110</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -306,6 +764,22 @@
       <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
+      <config:config-item-map-indexed config:name="ForbiddenCharacters">
+        <config:config-item-map-entry>
+          <config:config-item config:name="Language" config:type="string"/>
+          <config:config-item config:name="Country" config:type="string"/>
+          <config:config-item config:name="Variant" config:type="string"/>
+          <config:config-item config:name="BeginLine" config:type="string"/>
+          <config:config-item config:name="EndLine" config:type="string"/>
+        </config:config-item-map-entry>
+        <config:config-item-map-entry>
+          <config:config-item config:name="Language" config:type="string">en</config:config-item>
+          <config:config-item config:name="Country" config:type="string">IN</config:config-item>
+          <config:config-item config:name="Variant" config:type="string"/>
+          <config:config-item config:name="BeginLine" config:type="string"/>
+          <config:config-item config:name="EndLine" config:type="string"/>
+        </config:config-item-map-entry>
+      </config:config-item-map-indexed>
       <config:config-item config:name="IsOutlineSymbolsSet" config:type="boolean">true</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
       <config:config-item config:name="IsDocumentShared" config:type="boolean">false</config:config-item>
@@ -318,8 +792,10 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
+    <style:font-face style:name="HelveticaNeue" svg:font-family="HelveticaNeue"/>
     <style:font-face style:name="Menlo" svg:font-family="Menlo"/>
     <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
+    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="Liberation Serif" svg:font-family="'Liberation Serif'" style:font-family-generic="roman" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Times New Roman" svg:font-family="'Times New Roman'" style:font-family-generic="swiss" style:font-pitch="variable"/>
@@ -534,7 +1010,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2018-02-08">08/02/2018</text:date>
             , 
-            <text:time>12:29:36</text:time>
+            <text:time>14:39:12</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">//SPAN[@class='node_modules-fk-cs-dropdown-dropdown_options'][text()='Logout']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call to customer</t>
   </si>
   <si>
     <t xml:space="preserve">call drop down</t>
@@ -589,7 +586,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -637,7 +634,7 @@
   </sheetPr>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -929,10 +926,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,106 +1005,100 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="11.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="11.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>77</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
@@ -15,14 +15,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -195,23 +195,7 @@
     <t xml:space="preserve">Dropship - OD109438002728461000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Multiple Grocery orders - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">‪somnath.smp@gmail.com</t>
-    </r>
+    <t xml:space="preserve">Multiple Grocery orders - ‪somnath.smp@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">OD109663563195276000</t>
@@ -341,21 +325,162 @@
   </si>
   <si>
     <t xml:space="preserve">/html/body/div[1]/div/div[4]/div[1]/div/div[1]/div[1]/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//SPAN[@class='_-fk-cs-components-packages-sa-widgets-core-CurrentIssue-CurrentIssue_userName'][text()='Vivek keshri']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-CustomerCard-CustomerCardList-CustomerCardList_column'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-CustomerCard-CustomerCardList-CustomerCardList_column'])[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orders_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='_-fk-cs-components-packages-sa-widgets-core-RouteChain-RouteChain_text']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//SPAN[@title='Customer Id'][text()='ACC13518860262177453']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABAAAAAOCAYAAAAmL5yKAAAAt0lEQVR4AWNgYGhgYqi+asNQedmHaFxz1Ykhdxs7AxhUXXFnrL76j6nm6n9SMNDSNKgBVxNAAqTjy20wF8ThUwh03UGgk9OBNuagYTOiDGCouuTJVH1lKmP1ldOMNVfPgGgoPslQddGICAMuhzHWXHmOXe5qAlEGAG17wVR9dRVD9eVYoGE/YXIgPsUG0MMLiEBEwTVXT8ACkXA0Vl/OwBmNlCekmqseIAFykzJqZqq67E0Io2cmAA27vEtCzWu1AAAAAElFTkSuQmCC']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-fk-cs-components-packages-sa-widgets-core-Icon-Icon_icon'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//IMG[@src='data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iaXNvLTg4NTktMSI/Pgo8IS0tIEdlbmVyYXRvcjogQWRvYmUgSWxsdXN0cmF0b3IgMTkuMC4wLCBTVkcgRXhwb3J0IFBsdWctSW4gLiBTVkcgVmVyc2lvbjogNi4wMCBCdWlsZCAwKSAgLS0+CjxzdmcgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayIgdmVyc2lvbj0iMS4xIiBpZD0iQ2FwYV8xIiB4PSIwcHgiIHk9IjBweCIgdmlld0JveD0iMCAwIDMzIDMzIiBzdHlsZT0iZW5hYmxlLWJhY2tncm91bmQ6bmV3IDAgMCAzMyAzMzsiIHhtbDpzcGFjZT0icHJlc2VydmUiIHdpZHRoPSI1MTJweCIgaGVpZ2h0PSI1MTJweCI+CjxwYXRoIGQ9Ik0yNy42NDksMzNoLTcuMjE2Yy0wLjI3NiwwLTAuNS0wLjIyNC0wLjUtMC41VjIyLjMyaC02Ljg2N1YzMi41YzAsMC4yNzYtMC4yMjQsMC41LTAuNSwwLjVINS4zNDggIGMtMC4yNzYsMC0wLjUtMC4yMjQtMC41LTAuNVYxNS44OTNIMC43M2MtMC4yMDUsMC0wLjM4OS0wLjEyNS0wLjQ2NS0wLjMxNWMtMC4wNzUtMC4xOS0wLjAyNy0wLjQwNywwLjEyMS0wLjU0OEwxNi4xNTQsMC4xMzcgIGMwLjE5My0wLjE4MywwLjQ5NC0wLjE4MiwwLjY4OCwwbDE1Ljc3MiwxNC44OTNjMC4xNDgsMC4xNDEsMC4xOTYsMC4zNTgsMC4xMjEsMC41NDhjLTAuMDc2LDAuMTktMC4yNiwwLjMxNS0wLjQ2NSwwLjMxNWgtNC4xMjEgIFYzMi41QzI4LjE0OSwzMi43NzYsMjcuOTI1LDMzLDI3LjY0OSwzM3ogTTIwLjkzMywzMmg2LjIxNlYxNS4zOTNjMC0wLjI3NiwwLjIyNC0wLjUsMC41LTAuNWgzLjM2M0wxNi40OTgsMS4xODhMMS45ODgsMTQuODkzaDMuMzYgIGMwLjI3NiwwLDAuNSwwLjIyNCwwLjUsMC41VjMyaDYuMjE4VjIxLjgyYzAtMC4yNzYsMC4yMjQtMC41LDAuNS0wLjVoNy44NjdjMC4yNzYsMCwwLjUsMC4yMjQsMC41LDAuNVYzMnoiIGZpbGw9IiNGRkZGRkYiLz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPC9zdmc+Cg==']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//IMG[@src='data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iaXNvLTg4NTktMSI/Pgo8IS0tIEdlbmVyYXRvcjogQWRvYmUgSWxsdXN0cmF0b3IgMTkuMC4wLCBTVkcgRXhwb3J0IFBsdWctSW4gLiBTVkcgVmVyc2lvbjogNi4wMCBCdWlsZCAwKSAgLS0+CjxzdmcgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayIgdmVyc2lvbj0iMS4xIiBpZD0iQ2FwYV8xIiB4PSIwcHgiIHk9IjBweCIgdmlld0JveD0iMCAwIDQ5MCA0OTAiIHN0eWxlPSJlbmFibGUtYmFja2dyb3VuZDpuZXcgMCAwIDQ5MCA0OTA7IiB4bWw6c3BhY2U9InByZXNlcnZlIiB3aWR0aD0iNTEycHgiIGhlaWdodD0iNTEycHgiPgo8cGF0aCBkPSJNNDg0LjM0LDMwLjA0OUM0NDUuNTksMTAuMTA5LDQwNC42MzIsMCwzNjIuNjI0LDBjLTQwLjUzLDAtODAuMDgzLDkuNDE0LTExNy42MTgsMjcuOTg1QzIwNy40NzEsOS40MTQsMTY3LjkxNywwLDEyNy4zNzcsMCAgQzg1LjM2OSwwLDQ0LjQxMSwxMC4xMDksNS42NjEsMzAuMDQ5QzIuMTc5LDMxLjgzNywwLDM1LjQxNiwwLDM5LjMydjQ0MC4yNTVjMC42NDQsMTAuNzc4LDEwLjc1NSwxMS41MzEsMTUuMTkxLDkuMjcgIGM3MS43MTMtMzYuNTQ0LDE1Mi44NS0zNi44MDUsMjI0LjM4MiwwYzEuNDk3LDAuNzczLDQuMjQ5LDEuMzAxLDUuMzQ3LDEuMTE2YzEuODc5LDAuMTM0LDMuNzktMC4yMjUsNS41MTctMS4xMTYgIGM3MS41NTQtMzYuODE2LDE1Mi44MTktMzYuODE2LDIyNC4zNzMsMGMxLjQ5NywwLjc3MywzLjEzNiwxLjE1NSw0Ljc2NCwxLjE1NWMxLjg4NCwwLDEwLjQyNi0xLjk2OCwxMC40MjYtMTAuNDI2VjM5LjMyICBDNDkwLDM1LjQxNiw0ODcuODIyLDMxLjgzNyw0ODQuMzQsMzAuMDQ5eiBNMjMzLjkxMyw0NjMuMDRjLTY4LjQxOC0zMC4yNTQtMTQ0LjY0NS0zMC4yNjMtMjEzLjA2MywwVjQ1Ljc2NSAgYzY4LjE4NC0zMy4wNjksMTQ0LjkxLTMzLjA1OCwyMTMuMDYzLDBWNDYzLjA0eiBNNDY5LjE0OSw0NjMuMDRjLTM0LjIwOC0xNS4xMjktNjkuOTY1LTIyLjc4Ni0xMDYuNTI1LTIyLjc4NiAgYy0zNi41NjEsMC03Mi4zMTgsNy42NTctMTA2LjUyNiwyMi43ODZWNDUuNzY1YzY4LjE3NC0zMy4wNjksMTQ0Ljg3OC0zMy4wNjksMjEzLjA1MSwwVjQ2My4wNHoiIGZpbGw9IiNGRkZGRkYiLz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPGc+CjwvZz4KPC9zdmc+Cg==']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back to discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[text()='Back to Discovery']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session navigator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='_-fk-cs-components-packages-sa-widgets-core-ContactBag-ContactBag_caretClass _-fk-cs-components-packages-sa-widgets-core-node_modules-fk-cs-dropdown-dropdown_caretButton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excalate issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take a break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='node_modules-fk-cs-toggle-switch-ToggleSwitch_text'][text()='YES']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show selector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//SPAN[@class='_-sa-flipkart-src-Components-SelectorPanel-HiddenPanel-HiddenPanel_labelClass'][text()='Show selectors']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logged in user name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//SPAN[@class='node_modules-fk-cs-dropdown-dropdown_options'][text()='rahul.kant']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//SPAN[@class='node_modules-fk-cs-dropdown-dropdown_options'][text()='Account']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//SPAN[@class='node_modules-fk-cs-dropdown-dropdown_options'][text()='Change Password']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='client-container-Layout-Header-Header_disabledButton'][text()='Take a break']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign to no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='node_modules-fk-cs-toggle-switch-ToggleSwitch_text node_modules-fk-cs-toggle-switch-ToggleSwitch_no'][text()='NO']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yoda noti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/html/body/div[1]/div/div[4]/div[1]/div[2]/div/div/div[3]/div[i]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/html/body/div[1]/div/div[4]/div[1]/div[2]/div/div/div[2]/div[1]/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proceed to sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/html/body/div[1]/div/div[4]/div[1]/div[2]/div/div/div[2]/div[2]/div</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[RED]\-[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -373,43 +498,118 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="HelveticaNeue"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="HelveticaNeue"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -417,22 +617,73 @@
       <color rgb="FF0F7003"/>
       <name val="Menlo"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF0F7003"/>
+      <name val="Menlo"/>
+      <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -440,8 +691,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,62 +731,130 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Result" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -529,7 +863,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF0F7003"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -541,7 +875,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -557,7 +891,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -568,7 +902,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -586,18 +920,18 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="11.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -605,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -634,18 +968,18 @@
   </sheetPr>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -653,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -661,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -669,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -677,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -685,7 +1019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -693,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -701,7 +1035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -709,7 +1043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -717,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -725,7 +1059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -733,7 +1067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -741,7 +1075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -749,7 +1083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -757,7 +1091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -765,7 +1099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -773,7 +1107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -781,7 +1115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -789,7 +1123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -797,7 +1131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -805,7 +1139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -813,103 +1147,103 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A38" r:id="rId1" display="‪somnath.smp@gmail.com"/>
+    <hyperlink ref="A38" r:id="rId1" display="Multiple Grocery orders - ‪somnath.smp@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -926,181 +1260,422 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="140.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="107.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="135.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="5" width="11.64"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -466,6 +466,48 @@
   </si>
   <si>
     <t xml:space="preserve">/html/body/div[1]/div/div[4]/div[1]/div[2]/div/div/div[2]/div[2]/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordered on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//SPAN[text()='28 Jan 18, 10:43 PM'][text()='28 Jan 18, 10:43 PM'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//SPAN[text()='14599'])[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//SPAN[text()='AndroidApp'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create incident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[4]</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1302,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1659,13 +1701,62 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -486,19 +486,19 @@
     <t xml:space="preserve">(//SPAN[text()='AndroidApp'])[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">order verification</t>
+    <t xml:space="preserve">order verification dt</t>
   </si>
   <si>
     <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">create incident</t>
+    <t xml:space="preserve">create incident dt</t>
   </si>
   <si>
     <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[2]</t>
   </si>
   <si>
-    <t xml:space="preserve">price adjustment</t>
+    <t xml:space="preserve">price adjustment dt</t>
   </si>
   <si>
     <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[3]</t>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -486,28 +486,76 @@
     <t xml:space="preserve">(//SPAN[text()='AndroidApp'])[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">order verification dt</t>
+    <t xml:space="preserve">Order Detail Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create incident dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price adjustment dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selling price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//SPAN[text()='14599'][text()='14599'])[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='_-sa-flipkart-src-Components-Tabs-OrderTabs-PaymentDetails-PaymentDetails_outlineBtn'][text()='Download Invoice']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payments and refunds</t>
   </si>
   <si>
     <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">create incident dt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price adjustment dt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel dt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-DT-DTButton-DTButton_button _-sa-flipkart-src-Components-DT-DTButton-DTButton_outlineBtn _-sa-flipkart-src-Components-DT-DTButton-DTButton_isDisabled'])[4]</t>
+    <t xml:space="preserve">create incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">credit method and amount type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//SPAN[text()='Cod'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoice request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//SPAN[text()='14599'])[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">credit status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='_-sa-flipkart-src-Components-Tabs-OrderTabs-PaymentDetails-PaymentRow-PaymentRow_badge _-sa-flipkart-src-Components-Tabs-OrderTabs-PaymentDetails-PaymentRow-PaymentRow_yellow'][text()='Successful']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment details tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//LI)[23]</t>
   </si>
 </sst>
 </file>
@@ -1302,15 +1350,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="135.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="5" width="11.64"/>
   </cols>
@@ -1725,7 +1773,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>154</v>
       </c>
@@ -1757,15 +1805,78 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="184">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -555,7 +555,25 @@
     <t xml:space="preserve">payment details tab</t>
   </si>
   <si>
-    <t xml:space="preserve">(//LI)[23]</t>
+    <t xml:space="preserve">(//SPAN[text()='Payment Details'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//DIV[text()='Electronic City phase 1 , Konappana agrahara ,nanjuda reddy layout near yellamma temple ,Hosur main road Bangalore'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_change_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_incident_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[1]/ul/li[3]/div/div/img</t>
   </si>
 </sst>
 </file>
@@ -565,7 +583,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -719,6 +737,12 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF0F7003"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="0"/>
     </font>
@@ -870,7 +894,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -912,6 +936,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1350,10 +1378,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1877,7 +1905,38 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="188">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -159,52 +159,64 @@
     <t xml:space="preserve">ACC13518860262177453</t>
   </si>
   <si>
-    <t xml:space="preserve">MPS - OD109517621696221000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No range - OD508611132246620000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service comments - OD109324035711537000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CashBack Details - OD109423037514652000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDR - OD109353007890253000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropship and MPS - OD109097854718126000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large Order - OD109187889545342000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clawback - OD109999683584833000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More Selector - OD108160812021315000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replacement back from return - 11201075078648477883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blog Queue Incident - IN1712291215059494177(With No account id for email conversation test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropship - OD109438002728461000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Grocery orders - ‪somnath.smp@gmail.com</t>
+    <t xml:space="preserve">No range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD508611132246620000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD109324035711537000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CashBack Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropship and MPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clawback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD109999683584833000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Selector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD108160812021315000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog Queue Incident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN1712291215059494177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocery</t>
   </si>
   <si>
     <t xml:space="preserve">OD109663563195276000</t>
   </si>
   <si>
-    <t xml:space="preserve">OD109654062837325000 - with offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OD111401472227234000, OD111390914002058000 Large</t>
+    <t xml:space="preserve">OD111401472227234000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Order 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD111390914002058000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD109654062837325000</t>
   </si>
   <si>
     <t xml:space="preserve">login page</t>
@@ -707,10 +719,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="HelveticaNeue"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1084,10 +1094,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1265,104 +1275,137 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
+        <v>63</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A38" r:id="rId1" display="Multiple Grocery orders - ‪somnath.smp@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1380,7 +1423,7 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -1393,370 +1436,370 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1771,170 +1814,170 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -498,10 +498,10 @@
     <t xml:space="preserve">(//SPAN[text()='AndroidApp'])[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">Order Detail Actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]</t>
+    <t xml:space="preserve">Order verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[5]/div[1]/div/div/div[1]/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]</t>
   </si>
   <si>
     <t xml:space="preserve">create incident dt</t>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1096,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1423,8 +1423,8 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1836,7 +1836,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>156</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>158</v>
       </c>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="OrderInfo" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="XPath" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="orderwise" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="190">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -586,6 +587,12 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[1]/ul/li[3]/div/div/img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[1]/div[1]/div[1]</t>
   </si>
 </sst>
 </file>
@@ -595,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -718,11 +725,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -744,17 +746,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF0F7003"/>
-      <name val="Menlo"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -904,7 +900,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -921,14 +917,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -937,20 +933,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1097,7 +1089,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1276,66 +1268,66 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1343,28 +1335,28 @@
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -1423,456 +1415,456 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="135.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="5" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="135.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="4" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1880,7 +1872,7 @@
       <c r="A55" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1888,7 +1880,7 @@
       <c r="A56" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1896,88 +1888,136 @@
       <c r="A57" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="4" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="20.8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="190">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -1988,10 +1988,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2008,8 +2008,11 @@
       <c r="C1" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2018,6 +2021,9 @@
       </c>
       <c r="C2" s="10" t="s">
         <v>189</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="193">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -589,10 +589,46 @@
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[1]/ul/li[3]/div/div/img</t>
   </si>
   <si>
+    <t xml:space="preserve">close session</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">IMG[@src=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF0F7003"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">order id</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[1]/div[1]/div[1]</t>
+    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-CustomerCard-CustomerCardList-CustomerCardList_column'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[2]/div[1]/span</t>
   </si>
 </sst>
 </file>
@@ -602,7 +638,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -751,6 +787,19 @@
       <name val="Menlo"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF0F7003"/>
+      <name val="Menlo"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="9">
@@ -900,7 +949,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -938,6 +987,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1089,7 +1142,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1413,10 +1466,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1972,7 +2025,18 @@
         <v>187</v>
       </c>
     </row>
+    <row r="68" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B68" r:id="rId1" display="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1988,28 +2052,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="4" width="20.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="20.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>108</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,11 +2090,25 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>189</v>
+      <c r="C2" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>109</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="194">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -337,12 +337,15 @@
     <t xml:space="preserve">new session</t>
   </si>
   <si>
-    <t xml:space="preserve">/html/body/div[1]/div/div[4]/div[1]/div/div[1]/div[1]/div[2]/div[2]</t>
+    <t xml:space="preserve">//DIV[@class='_-fk-cs-components-packages-sa-widgets-core-node_modules-fk-cs-buttons-Button-Button_buttonRegular _-fk-cs-components-packages-sa-widgets-core-node_modules-fk-cs-buttons-PrimaryButton-PrimaryButton_pButtonStyle _-fk-cs-components-packages-sa-widgets-core-SessionsInbox-SessionsInbox_queryButton']</t>
   </si>
   <si>
     <t xml:space="preserve">search box</t>
   </si>
   <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div/div[1]/div[2]/div/div/input</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -427,7 +430,7 @@
     <t xml:space="preserve">show selector</t>
   </si>
   <si>
-    <t xml:space="preserve">//SPAN[@class='_-sa-flipkart-src-Components-SelectorPanel-HiddenPanel-HiddenPanel_labelClass'][text()='Show selectors']</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[1]/div/div[2]/button/span</t>
   </si>
   <si>
     <t xml:space="preserve">profile button</t>
@@ -592,34 +595,7 @@
     <t xml:space="preserve">close session</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">IMG[@src=</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF0F7003"/>
-        <rFont val="Menlo"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">'data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
+    <t xml:space="preserve">IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -638,7 +614,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -787,19 +763,6 @@
       <name val="Menlo"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF0F7003"/>
-      <name val="Menlo"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="9">
@@ -949,7 +912,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -987,10 +950,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1468,8 +1427,8 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B32" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1631,7 +1590,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="55.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>103</v>
       </c>
@@ -1644,132 +1603,132 @@
         <v>105</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>78</v>
@@ -1777,26 +1736,26 @@
     </row>
     <row r="38" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,39 +1771,39 @@
         <v>89</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1859,183 +1818,183 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B68" s="10" t="s">
         <v>189</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B68" r:id="rId1" display="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII"/>
+    <hyperlink ref="B68" r:id="rId1" display="IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2055,32 +2014,32 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="20.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>106</v>
+        <v>191</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,17 +2049,17 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>191</v>
+      <c r="C2" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="198">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -37,6 +37,18 @@
     <t xml:space="preserve">Rahul@12345</t>
   </si>
   <si>
+    <t xml:space="preserve">vidya.reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flipkart@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr.sathish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathish@1992</t>
+  </si>
+  <si>
     <t xml:space="preserve">cashback</t>
   </si>
   <si>
@@ -505,7 +517,7 @@
     <t xml:space="preserve">Order verification</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id="root"]/div/div[5]/div[1]/div/div/div[1]/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]</t>
+    <t xml:space="preserve">//*[@id='root']/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]</t>
   </si>
   <si>
     <t xml:space="preserve">create incident dt</t>
@@ -1050,10 +1062,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1071,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -1079,9 +1091,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Rahul@12345"/>
+    <hyperlink ref="B3" r:id="rId2" display="Flipkart@123"/>
+    <hyperlink ref="B4" r:id="rId3" display="Sathish@1992"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1113,290 +1150,290 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1427,8 +1464,8 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B32" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B47" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1440,370 +1477,370 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1818,178 +1855,178 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2027,47 +2064,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="200">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -608,6 +608,12 @@
   </si>
   <si>
     <t xml:space="preserve">IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='_-sa-flipkart-src-Components-Tabs-OrderTabs-PaymentDetails-PaymentDetails_actions']</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1462,10 +1468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B47" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2027,6 +2033,14 @@
       </c>
       <c r="B68" s="9" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2078,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>111</v>
@@ -2087,7 +2101,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>114</v>
@@ -2096,7 +2110,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="202">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -610,10 +610,16 @@
     <t xml:space="preserve">IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']</t>
   </si>
   <si>
-    <t xml:space="preserve">payment details</t>
+    <t xml:space="preserve">payment details all dts</t>
   </si>
   <si>
     <t xml:space="preserve">//DIV[@class='_-sa-flipkart-src-Components-Tabs-OrderTabs-PaymentDetails-PaymentDetails_actions']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address details all dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//DIV[@class='_-sa-flipkart-src-Components-Tabs-OrderTabs-Address-Address_actions']</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1468,10 +1474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2035,12 +2041,20 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2092,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>111</v>
@@ -2101,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>114</v>
@@ -2110,7 +2124,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="204">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t xml:space="preserve">//DIV[@class='_-sa-flipkart-src-Components-Tabs-OrderTabs-Address-Address_actions']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery ordered on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id=’root’]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/span[2]</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1076,7 +1082,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1155,7 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1474,10 +1480,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2055,6 +2061,14 @@
       </c>
       <c r="B70" s="4" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2092,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2092,7 +2106,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>111</v>
@@ -2115,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>114</v>
@@ -2124,7 +2138,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -355,9 +355,6 @@
     <t xml:space="preserve">search box</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div/div[1]/div[2]/div/div/input</t>
-  </si>
-  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -431,6 +428,36 @@
   </si>
   <si>
     <t xml:space="preserve">excalate issue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">//IMG[@src='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">==']</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">take a break</t>
@@ -1482,8 +1509,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1658,111 +1685,111 @@
         <v>109</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="8" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +2100,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B68" r:id="rId1" display="IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']"/>
+    <hyperlink ref="B34" r:id="rId1" display="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg"/>
+    <hyperlink ref="B68" r:id="rId2" display="IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2109,16 +2137,16 @@
         <v>201</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,10 +2160,10 @@
         <v>202</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>203</v>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -652,7 +652,7 @@
     <t xml:space="preserve">grocery ordered on</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id=’root’]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/span[2]</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/div[1]/div/span[2]</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1509,8 +1509,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B64" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -652,7 +652,7 @@
     <t xml:space="preserve">grocery ordered on</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/div[1]/div/span[2]</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/span[2]</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1509,8 +1509,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B64" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -653,6 +653,54 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/span[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery active count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[1]/span[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery delivered count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[1]/span[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery cancelled count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[1]/span[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery returned count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[1]/span[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery undelivered count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[1]/span[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery basket price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery delivery charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery total saving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div[3]</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1507,10 +1555,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2096,6 +2144,70 @@
       </c>
       <c r="B71" s="4" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2246,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>110</v>
@@ -2157,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2166,7 +2278,7 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="230">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -703,6 +703,36 @@
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div[3]</t>
   </si>
   <si>
+    <t xml:space="preserve">grocery all-items tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[3]/div[2]/div[1]/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery active item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[3]/div[2]/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery cancelled item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[3]/div[2]/div[1]/div[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery returned item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[3]/div[2]/div[1]/div[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery undelivered item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[3]/div[2]/div[1]/div[5]</t>
+  </si>
+  <si>
     <t xml:space="preserve">order id</t>
   </si>
   <si>
@@ -719,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -869,6 +899,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF520067"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1017,7 +1054,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1055,6 +1092,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1109,7 +1150,7 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF520067"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
@@ -1157,7 +1198,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1230,7 +1271,7 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1555,10 +1596,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2208,6 +2249,46 @@
       </c>
       <c r="B79" s="4" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +2313,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2240,15 +2321,15 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="20.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2268,8 +2349,8 @@
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>218</v>
+      <c r="C2" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2278,7 +2359,7 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -634,7 +634,7 @@
     <t xml:space="preserve">close session</t>
   </si>
   <si>
-    <t xml:space="preserve">IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[1]/header/div[2]/div[1]/div[3]/div/div[2]/span[3]</t>
   </si>
   <si>
     <t xml:space="preserve">payment details all dts</t>
@@ -736,7 +736,7 @@
     <t xml:space="preserve">order id</t>
   </si>
   <si>
-    <t xml:space="preserve">(//DIV[@class='_-sa-flipkart-src-Components-CustomerCard-CustomerCardList-CustomerCardList_column'])[1]</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[1]/div[1]/div[1]</t>
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[2]/div[1]/span</t>
@@ -749,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -906,6 +906,11 @@
       <name val="Menlo"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="HelveticaNeue"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1054,7 +1059,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1101,6 +1106,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1281,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1598,8 +1607,8 @@
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2155,7 +2164,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>193</v>
       </c>
@@ -2294,7 +2303,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" display="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg"/>
-    <hyperlink ref="B68" r:id="rId2" display="IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAkCAYAAADPRbkKAAACw0lEQVR4AdWYA8ycTRDH79s9fbbt76tt22ZcxCniYueytR3UQd2oCqqgtndOr83aevpujcMzx+edZILD5PdfDWxWt58W5r9vBzWLCTxf5Vc5qEMccLStOphben9joLxMKONt56C2Whr+A+n7gYHKfAUdUsRIS8J/NDP4NQOFGjKyADxiOfjPZPZnDPCMBozqgNcsBf/tvJIP9aqagtcOSlkG/jeZ7eZC7TcLr93uwYWWgG+4wnBwwF0UeAYq/wsZ/CTt8IO3GpwDbiHAa7/slL46aYc3DOM9LtRaGjxed0h/E5sVjINaRoS/bZfYxhLwdo+aSTzz9+web9eogb+WZR/prU0mPAM1iQj/gAvsF/EJs4N3BgNV+vwPt7hQ69+XwZ+SAD+WBo+PuMc7PGzAmtJw6govjPJShwzUS+CZH8kEPiac+cdRK08mvBOjBKlwgL9u3PAeHKpXk3hpx5nZUjSxjeXxvLtceHsxoe4Tz/0kU8H102QqoBYB3toxvDYdmcC7FHj9QlEuVSZhS8ucEmuZhpfeFkyomxR4LtRS2goBziFubakTVM1ocR2g6usWkAQPuIb8hH81x/cxAwyQRchgjXAx9Xf6yBHhN0lpsNh6z+n4KwPMJhZUJU4R+P+dWDLwBwMspMGr7e2kYacwhxYhMIe4E8VO6f/vRQyd+KgLwQH3/LU06ErcFIAqQmCRS/j+/UhmfMMAfcQLe/AHWfRBMkYZuVQRVX6ReGxOJK0hcU/z/U4XQXDAC5/I/C8SCh3yMgqVlwR4/4czsr4loMQpAlR+AuGziRVu/OaaFvwzISIAC/WC2NJhLpnxFxNYELsALAuRM6qJCFBXCD1FkkUI/JuUZUHdcEhsZrOSuaT3H3Mi9ATB2y5VXHQRAosiTRC4R3VPGyBhJ86EurAWXfnQAwEGOF6XwlqMHXCRLgpTyfAE9DK4NS4pB8IAAAAASUVORK5CYII=']"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2314,7 +2322,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2346,7 +2354,7 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="233">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -740,6 +740,15 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[2]/div[1]/span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/div[1]/div/span[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/div[2]/div[1]/span[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/div[2]/div[2]/span[2]</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1616,7 @@
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -2319,10 +2328,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2349,6 +2358,15 @@
       <c r="F1" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -2368,6 +2386,15 @@
       </c>
       <c r="F2" s="4" t="s">
         <v>229</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="234">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[3]/div[2]/div[1]/div[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery selling price</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1216,7 +1219,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1289,7 +1292,7 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1614,10 +1617,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2307,6 +2310,14 @@
       </c>
       <c r="B84" s="4" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +2341,7 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2344,7 +2355,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>110</v>
@@ -2376,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2385,16 +2396,16 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="235">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t xml:space="preserve">grocery selling price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show selectors</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1617,10 +1620,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2318,6 +2321,14 @@
       </c>
       <c r="B85" s="4" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2366,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>110</v>
@@ -2387,7 +2398,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2396,16 +2407,16 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -1623,7 +1623,7 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="239">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -739,6 +739,18 @@
     <t xml:space="preserve">Show selectors</t>
   </si>
   <si>
+    <t xml:space="preserve">email button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[2]/div[2]/div[2]/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email reply button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div/div/div/div[2]/div/div/div[2]/div[2]/div/div/div/div[1]/div[2]/div[1]/span/div/img</t>
+  </si>
+  <si>
     <t xml:space="preserve">order id</t>
   </si>
   <si>
@@ -764,7 +776,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -909,6 +921,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF0F7003"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="0"/>
@@ -1074,7 +1093,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1107,23 +1126,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1620,10 +1643,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1697,7 +1720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
@@ -1705,7 +1728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -1753,7 +1776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
@@ -1761,35 +1784,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="55.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1797,7 +1820,7 @@
       <c r="A21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1805,7 +1828,7 @@
       <c r="A22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1813,7 +1836,7 @@
       <c r="A23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1821,7 +1844,7 @@
       <c r="A24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1829,7 +1852,7 @@
       <c r="A25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1837,7 +1860,7 @@
       <c r="A26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1845,7 +1868,7 @@
       <c r="A27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1853,7 +1876,7 @@
       <c r="A28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1861,7 +1884,7 @@
       <c r="A29" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1869,7 +1892,7 @@
       <c r="A30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1877,7 +1900,7 @@
       <c r="A31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1885,7 +1908,7 @@
       <c r="A32" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1893,7 +1916,7 @@
       <c r="A33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1901,7 +1924,7 @@
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1909,7 +1932,7 @@
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1917,7 +1940,7 @@
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1925,7 +1948,7 @@
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1933,7 +1956,7 @@
       <c r="A38" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1941,7 +1964,7 @@
       <c r="A39" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1949,7 +1972,7 @@
       <c r="A40" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1957,7 +1980,7 @@
       <c r="A41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1965,7 +1988,7 @@
       <c r="A42" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1973,7 +1996,7 @@
       <c r="A43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1981,7 +2004,7 @@
       <c r="A44" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2148,7 +2171,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="10" t="s">
         <v>187</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2156,7 +2179,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>189</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -2164,7 +2187,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="10" t="s">
         <v>190</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -2183,7 +2206,7 @@
       <c r="A68" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2279,7 +2302,7 @@
       <c r="A80" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="11" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2329,6 +2352,22 @@
       </c>
       <c r="B86" s="4" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2360,21 +2399,21 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="20.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -2394,29 +2433,29 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>230</v>
+      <c r="C2" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="243">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -749,6 +749,18 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div/div/div/div[2]/div/div/div[2]/div[2]/div/div/div/div[1]/div[2]/div[1]/span/div/img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email open details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div[3]/span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assigned email session URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.85.53.223/flipkart/#/session/SES152360189149755199/nonOrder/IN1708021438531717419</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1093,7 +1105,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1139,6 +1151,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1643,7 +1659,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
@@ -2370,9 +2386,26 @@
         <v>232</v>
       </c>
     </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" display="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg"/>
+    <hyperlink ref="B90" r:id="rId2" location="/session/SES152360189149755199/nonOrder/IN1708021438531717419" display="http://10.85.53.223/flipkart/#/session/SES152360189149755199/nonOrder/IN1708021438531717419"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2399,15 +2432,15 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="20.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2433,11 +2466,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>234</v>
+      <c r="C2" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2446,16 +2479,16 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="247">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -761,6 +761,18 @@
   </si>
   <si>
     <t xml:space="preserve">http://10.85.53.223/flipkart/#/session/SES152360189149755199/nonOrder/IN1708021438531717419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update assigned incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[4]/div/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup order id send sms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[2]/div/div/div/div[1]</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1105,7 +1117,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,10 +1163,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1659,10 +1667,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2394,18 +2402,33 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="4" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" display="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg"/>
-    <hyperlink ref="B90" r:id="rId2" location="/session/SES152360189149755199/nonOrder/IN1708021438531717419" display="http://10.85.53.223/flipkart/#/session/SES152360189149755199/nonOrder/IN1708021438531717419"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2432,15 +2455,15 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="20.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2466,11 +2489,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>238</v>
+      <c r="C2" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2479,16 +2502,16 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -757,10 +757,10 @@
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div[3]/span</t>
   </si>
   <si>
-    <t xml:space="preserve">assigned email session URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.85.53.223/flipkart/#/session/SES152360189149755199/nonOrder/IN1708021438531717419</t>
+    <t xml:space="preserve">send sms  button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[2]/div[2]/div[2]/div[2]</t>
   </si>
   <si>
     <t xml:space="preserve">update assigned incidents</t>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
+      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2402,7 +2402,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>235</v>
       </c>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="251">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -773,6 +773,18 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[2]/div/div/div/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[2]/div/div/div/div[1]/div[2]/div[1]/div/div[2]/div/div[2]/div[2]/div/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone radio button enable check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[2]/div/div/div/div[1]/div[2]/div[1]/div/div[2]/div/div[2]/div[2]/div/div[1]/input</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1667,10 +1679,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
+      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2424,6 +2436,22 @@
       </c>
       <c r="B92" s="4" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2489,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>110</v>
@@ -2493,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2502,16 +2530,16 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="255">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -785,6 +785,18 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[2]/div/div/div/div[1]/div[2]/div[1]/div/div[2]/div/div[2]/div[2]/div/div[1]/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup submit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[2]/div/div/div/div[1]/div[2]/div[1]/div/div[2]/div/div[5]/div/div/div[1]/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup close button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[2]/div/div/div/div[1]/div[1]/span[1]</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1679,10 +1691,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
+      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2452,6 +2464,22 @@
       </c>
       <c r="B94" s="4" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2517,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>110</v>
@@ -2521,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2530,16 +2558,16 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="254">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -349,7 +349,7 @@
     <t xml:space="preserve">new session</t>
   </si>
   <si>
-    <t xml:space="preserve">//DIV[@class='_-fk-cs-components-packages-sa-widgets-core-node_modules-fk-cs-buttons-Button-Button_buttonRegular _-fk-cs-components-packages-sa-widgets-core-node_modules-fk-cs-buttons-PrimaryButton-PrimaryButton_pButtonStyle _-fk-cs-components-packages-sa-widgets-core-SessionsInbox-SessionsInbox_queryButton']</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div[1]/div[1]/div[2]/div[2]/div/div</t>
   </si>
   <si>
     <t xml:space="preserve">search box</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">//SPAN[@class='_-fk-cs-components-packages-sa-widgets-core-CurrentIssue-CurrentIssue_userName'][text()='Vivek keshri']</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[1]/div[1]/div[1]</t>
   </si>
   <si>
     <t xml:space="preserve">phone</t>
@@ -424,40 +424,13 @@
     <t xml:space="preserve">session navigator</t>
   </si>
   <si>
-    <t xml:space="preserve">//DIV[@class='_-fk-cs-components-packages-sa-widgets-core-ContactBag-ContactBag_caretClass _-fk-cs-components-packages-sa-widgets-core-node_modules-fk-cs-dropdown-dropdown_caretButton']</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[1]/header/div[2]/div[1]/div[2]/div/div[1]/div/div/div/div[1]</t>
   </si>
   <si>
     <t xml:space="preserve">excalate issue</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">//IMG[@src='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">==']</t>
-    </r>
+    <t xml:space="preserve">//IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg==']</t>
   </si>
   <si>
     <t xml:space="preserve">take a break</t>
@@ -800,9 +773,6 @@
   </si>
   <si>
     <t xml:space="preserve">order id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[1]/div[1]/div[1]</t>
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[2]/div[1]/span</t>
@@ -824,7 +794,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -987,11 +957,7 @@
       <color rgb="FF520067"/>
       <name val="Menlo"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1141,7 +1107,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1182,6 +1148,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1194,7 +1164,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1693,8 +1663,8 @@
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1856,7 +1826,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>107</v>
       </c>
@@ -1960,7 +1930,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>132</v>
       </c>
@@ -1972,7 +1942,7 @@
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2219,7 +2189,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>187</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2227,7 +2197,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>189</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -2235,7 +2205,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -2254,7 +2224,7 @@
       <c r="A68" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="11" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2350,7 +2320,7 @@
       <c r="A80" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2484,7 +2454,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B34" r:id="rId1" display="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg"/>
+    <hyperlink ref="B34" r:id="rId1" display="//IMG[@src='data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAABQAAAATCAYAAACQjC21AAAAAXNSR0IArs4c6QAAAcJJREFUOBGd090rQ3Ecx/GdbRYTUyullGQt2Twku5HbeUjKtQsp5A9Q/gUPF0opRUmJCynJlRAuzKVk2Z24cONGSsrT5v1ZpuOcPfGt1875/c739933d36bw/HHSKVSPjhzLcv5INsCChnMj2JIzxm7UKH7TBRdkIUeFq2iDt2My7i6Mc/9MNfigwXa5hYUcSygHxE0YgXprgtWJTGEM2Qiyc0M5hDFLoLYRrVazho89PFgAlPwm5L0HgN4QgxejOAIfbZ3SKFKjPHwHLMwF2OYjhY+VbALe6jFHYI/HVIkwsQrNhBGvtDBKDdsGMY+az+5T8LtZFCCZQZqvw36tkKhEy+Fn7UhriquV/SgLTdjHOpW7+MGxUQVSfrp1GMdvThUkXeoXRVvhTptR6FQR1p7gDe42f6lilxjE4oBHOMet7jAKU6QwAsyoQ514l4KpaC89IT+QtpqFM9Qhx0IQFvSX8uDK8TRhE7oIGowSbFHrrmDL+iBNZasK0hogMs6bxuT5EYM5hi0JWaZsP2wlcMWPrgsWvK1xf8HrXmRMLW4Vky1rB1qIV3qRKdNRcwnbJr+fatjzxt0qHdXjp3vL8mb/wUG1QE3Zk17GQAAAABJRU5ErkJggg==']"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2511,7 +2481,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="20.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="20.8"/>
   </cols>
   <sheetData>
@@ -2519,7 +2489,7 @@
       <c r="B1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2545,11 +2515,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>250</v>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>113</v>
@@ -2558,16 +2528,16 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="256">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -775,6 +775,9 @@
     <t xml:space="preserve">order id</t>
   </si>
   <si>
+    <t xml:space="preserve">current address</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[2]/div[1]/span</t>
   </si>
   <si>
@@ -785,6 +788,9 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]/div[2]/div[2]/span[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]/div[2]</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1342,8 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1403,7 +1409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -1663,8 +1669,8 @@
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B51" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2471,10 +2477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2510,6 +2516,12 @@
       <c r="I1" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -2528,24 +2540,22 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>254</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="268">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -770,6 +770,42 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[2]/div/div/div/div[1]/div[1]/span[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selector_incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[1]/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selector_returns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selector_replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selector_refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selector_services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selector_callback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[6]</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1269,7 +1305,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1342,7 +1378,7 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1667,10 +1703,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B51" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2456,6 +2492,54 @@
       </c>
       <c r="B96" s="4" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2563,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2493,7 +2577,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>110</v>
@@ -2520,7 +2604,7 @@
         <v>171</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,22 +2624,22 @@
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>200</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -67,7 +67,25 @@
     <t xml:space="preserve">OD110139291489831000</t>
   </si>
   <si>
-    <t xml:space="preserve">order_id_3</t>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF520067"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">order_id_3   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">cash_back</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">OD109423037514652000</t>
@@ -680,7 +698,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -801,6 +819,12 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF0F7003"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="0"/>
     </font>
@@ -1022,10 +1046,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1038,6 +1058,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1046,19 +1070,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1231,14 +1255,15 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -55,13 +55,51 @@
     <t xml:space="preserve">Order_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">order_id_1</t>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF520067"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">order_id_1  </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF6D6D6D"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">incident,return,replacement</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">OD111401472227234000</t>
   </si>
   <si>
-    <t xml:space="preserve">order_id_2</t>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF520067"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">order_id_2  </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF6D6D6D"/>
+        <rFont val="Menlo"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">grocery</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">OD110139291489831000</t>
@@ -698,7 +736,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -812,6 +850,13 @@
       <i val="true"/>
       <sz val="12"/>
       <color rgb="FF520067"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF6D6D6D"/>
       <name val="Menlo"/>
       <family val="0"/>
     </font>
@@ -918,7 +963,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF6D6D6D"/>
       </patternFill>
     </fill>
     <fill>
@@ -1038,7 +1083,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1046,10 +1091,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1062,6 +1103,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1070,19 +1115,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1159,7 +1204,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF6D6D6D"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -1255,12 +1300,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.56"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="230">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -703,6 +703,48 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide selectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash back item from order detail tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div/div/div[1]/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order detail tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[1]/ul/li[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_detail_tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[1]/ul/li[1]/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistic detail tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[1]/ul/li[2]/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seller detail tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer detail tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[1]/ul/li[4]/div/span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item detail all DT’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1299,7 +1341,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1401,10 +1443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B95" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2238,6 +2280,70 @@
       </c>
       <c r="B102" s="4" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2381,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>57</v>
@@ -2302,12 +2408,12 @@
         <v>118</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>15</v>
@@ -2322,22 +2428,22 @@
         <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>147</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -744,7 +744,7 @@
     <t xml:space="preserve">item detail all DT’s</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]/div</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1445,8 +1445,8 @@
   </sheetPr>
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B95" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B111" activeCellId="0" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="231">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -745,6 +745,9 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistics detail all DT’s</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -1443,10 +1446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B111" activeCellId="0" sqref="B111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B96" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2343,6 +2346,14 @@
         <v>220</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2381,7 +2392,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>57</v>
@@ -2408,12 +2419,12 @@
         <v>118</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>15</v>
@@ -2428,22 +2439,22 @@
         <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>147</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -62,6 +62,7 @@
         <color rgb="FF520067"/>
         <rFont val="Menlo"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">order_id_1  </t>
     </r>
@@ -72,6 +73,7 @@
         <color rgb="FF6D6D6D"/>
         <rFont val="Menlo"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">incident,return,replacement</t>
     </r>
@@ -87,6 +89,7 @@
         <color rgb="FF520067"/>
         <rFont val="Menlo"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">order_id_2  </t>
     </r>
@@ -97,6 +100,7 @@
         <color rgb="FF6D6D6D"/>
         <rFont val="Menlo"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">grocery</t>
     </r>
@@ -112,6 +116,7 @@
         <color rgb="FF520067"/>
         <rFont val="Menlo"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">order_id_3   </t>
     </r>
@@ -121,6 +126,7 @@
         <color rgb="FF000000"/>
         <rFont val="Menlo"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">cash_back</t>
     </r>
@@ -748,6 +754,9 @@
   </si>
   <si>
     <t xml:space="preserve">logistics detail all DT’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div[2]/div/div/div[2]/div[2]/div</t>
   </si>
   <si>
     <t xml:space="preserve">order id</t>
@@ -781,7 +790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -897,6 +906,7 @@
       <color rgb="FF520067"/>
       <name val="Menlo"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -904,25 +914,6 @@
       <color rgb="FF6D6D6D"/>
       <name val="Menlo"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF0F7003"/>
-      <name val="Menlo"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -934,6 +925,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -942,13 +947,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0F7003"/>
-      <name val="Menlo"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1140,6 +1138,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1148,31 +1150,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1271,7 +1269,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1344,7 +1342,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1446,10 +1444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B96" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2355,6 +2353,14 @@
       </c>
       <c r="B111" s="4" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2378,7 +2384,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2392,7 +2398,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>57</v>
@@ -2419,12 +2425,12 @@
         <v>118</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>15</v>
@@ -2439,22 +2445,22 @@
         <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>147</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="237">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -782,6 +782,21 @@
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[2]/div[2]</t>
   </si>
+  <si>
+    <t xml:space="preserve">ndr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD109353007890253000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[1]/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[1]/div[1]/div[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div/div/div[1]/div[1]/div[2]/div[2]/div[2]/span[2]</t>
+  </si>
 </sst>
 </file>
 
@@ -790,7 +805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -965,6 +980,11 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="HelveticaNeue"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1113,7 +1133,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1171,6 +1191,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1446,7 +1470,7 @@
   </sheetPr>
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
@@ -2382,10 +2406,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2463,6 +2487,41 @@
         <v>231</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -1133,7 +1133,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1187,6 +1187,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2409,7 +2413,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2421,34 +2425,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2456,7 +2460,7 @@
       <c r="A2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -2491,7 +2495,7 @@
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C3" s="13" t="s">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="245">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -47,6 +47,30 @@
   </si>
   <si>
     <t xml:space="preserve">Sathish@1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_Url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sitemployees.blackbuck.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">techsupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="username"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="password"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signin button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="login-btn"]</t>
   </si>
   <si>
     <t xml:space="preserve">Order Type</t>
@@ -1295,17 +1319,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,6 +1366,44 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1352,6 +1415,7 @@
     <hyperlink ref="B2" r:id="rId1" display="Rahul@12345"/>
     <hyperlink ref="B3" r:id="rId2" display="Flipkart@123"/>
     <hyperlink ref="B4" r:id="rId3" display="Sathish@1992"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://sitemployees.blackbuck.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1384,34 +1448,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1487,370 +1551,370 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1865,530 +1929,530 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2476,7 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2426,104 +2490,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="237">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -47,30 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sathish@1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_Url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sitemployees.blackbuck.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">techsupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="username"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="password"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signin button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="login-btn"]</t>
   </si>
   <si>
     <t xml:space="preserve">Order Type</t>
@@ -1319,10 +1295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1366,44 +1342,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1415,7 +1358,6 @@
     <hyperlink ref="B2" r:id="rId1" display="Rahul@12345"/>
     <hyperlink ref="B3" r:id="rId2" display="Flipkart@123"/>
     <hyperlink ref="B4" r:id="rId3" display="Sathish@1992"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://sitemployees.blackbuck.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1448,34 +1390,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1538,7 +1480,7 @@
   </sheetPr>
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
@@ -1551,370 +1493,370 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="164.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1929,530 +1871,530 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2490,104 +2432,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -1297,7 +1297,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2418,8 +2418,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -795,7 +795,7 @@
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[1]/div[2]/div/div[1]/div[1]/div[3]</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div/div/div[1]/div[1]/div[2]/div[2]/div[2]/span[2]</t>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -980,11 +980,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="HelveticaNeue"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1133,7 +1128,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1195,10 +1190,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2418,8 +2409,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2497,11 +2488,11 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="55.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>233</v>
       </c>
       <c r="C3" s="13" t="s">

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="OrderInfo" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="XPath" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="orderwise" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="case_5_xpaths" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="243">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -797,6 +798,24 @@
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[1]/div[1]</t>
   </si>
+  <si>
+    <t xml:space="preserve">Refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD109155976663100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD112574278527125000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Incident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[2]/div/div/div/ul/div/li/div</t>
+  </si>
 </sst>
 </file>
 
@@ -805,7 +824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -980,6 +999,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="Menlo"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1128,7 +1154,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1190,6 +1216,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2407,10 +2437,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2523,6 +2553,62 @@
         <v>231</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="26.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="4" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="247">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -815,6 +815,18 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[2]/div/div/div/ul/div/li/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created – UI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created - Timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[1]/div/div[2]</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1513,7 @@
   </sheetPr>
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
@@ -2577,10 +2589,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2609,6 +2621,26 @@
         <v>242</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="251">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -827,6 +827,18 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[1]/div/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation date UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation date Timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[2]/div[2]/div[2]</t>
   </si>
 </sst>
 </file>
@@ -2589,10 +2601,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2641,6 +2653,26 @@
         <v>246</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="255">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -839,6 +839,18 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[2]/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In progress UI date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[4]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In progress Timeline date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[3]/div[2]/div[2]</t>
   </si>
 </sst>
 </file>
@@ -2601,10 +2613,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2673,6 +2685,26 @@
         <v>250</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="263">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -811,25 +811,49 @@
     <t xml:space="preserve">OD112574278527125000</t>
   </si>
   <si>
+    <t xml:space="preserve">OD112809564412835000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on Incident</t>
   </si>
   <si>
+    <t xml:space="preserve">Item_detail_click</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[2]/div/div/div/ul/div/li/div</t>
   </si>
   <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div/div/div[1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Created – UI </t>
   </si>
   <si>
+    <t xml:space="preserve">order tracking link 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[1]/div[2]</t>
   </si>
   <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[1]/div[1]/div[2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Created - Timeline</t>
   </si>
   <si>
+    <t xml:space="preserve">Url of new tab after clicking in tracking kink</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[1]/div/div[2]</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.flipkart.com/trackorder?trackingId=FMPP0172199750&amp;emailId=262cf5db2a92a1f9bc31349fcf267ac7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Activation date UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order ID -2 </t>
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[2]/div[2]</t>
@@ -2613,99 +2637,133 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="26.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="28.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="4" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>239</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://www.flipkart.com/trackorder?trackingId=FMPP0172199750&amp;emailId=262cf5db2a92a1f9bc31349fcf267ac7"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="266">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -862,13 +862,52 @@
     <t xml:space="preserve">Activation date Timeline</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> item detail click from OD section</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[2]/div[2]/div[2]</t>
   </si>
   <si>
     <t xml:space="preserve">In progress UI date</t>
   </si>
   <si>
+    <t xml:space="preserve">order tracking link 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[4]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[1]/div[1]/div[2]/a</t>
   </si>
   <si>
     <t xml:space="preserve">In progress Timeline date</t>
@@ -884,7 +923,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1066,6 +1105,14 @@
       <name val="Menlo"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2639,8 +2686,8 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2730,39 +2777,58 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>257</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>262</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://www.flipkart.com/trackorder?trackingId=FMPP0172199750&amp;emailId=262cf5db2a92a1f9bc31349fcf267ac7"/>
+    <hyperlink ref="B16" r:id="rId2" display="https://www.flipkart.com/trackorder?trackingId=FMPP0172199750&amp;emailId=262cf5db2a92a1f9bc31349fcf267ac7"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="273">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -808,30 +808,45 @@
     <t xml:space="preserve">Order_Id</t>
   </si>
   <si>
+    <t xml:space="preserve">Order ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">OD112574278527125000</t>
   </si>
   <si>
     <t xml:space="preserve">OD112809564412835000</t>
   </si>
   <si>
+    <t xml:space="preserve">OD112807288735538000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on Incident</t>
   </si>
   <si>
     <t xml:space="preserve">Item_detail_click</t>
   </si>
   <si>
+    <t xml:space="preserve">Refund Tab Xpath</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[2]/div/div/div/ul/div/li/div</t>
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[2]/div/div/div/div[1]</t>
   </si>
   <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[1]/div[2]/div/div/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[4]/div</t>
+  </si>
+  <si>
     <t xml:space="preserve">Created – UI </t>
   </si>
   <si>
     <t xml:space="preserve">order tracking link 1</t>
   </si>
   <si>
+    <t xml:space="preserve">refund card_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[1]/div[2]</t>
   </si>
   <si>
@@ -844,10 +859,16 @@
     <t xml:space="preserve">Url of new tab after clicking in tracking kink</t>
   </si>
   <si>
+    <t xml:space="preserve">refund ID _1 verify</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[1]/div/div[2]</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.flipkart.com/trackorder?trackingId=FMPP0172199750&amp;emailId=262cf5db2a92a1f9bc31349fcf267ac7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[2]/div/div[1]/div[1]</t>
   </si>
   <si>
     <t xml:space="preserve">Activation date UI</t>
@@ -923,7 +944,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1099,13 +1120,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="12"/>
-      <color rgb="FF6D6D6D"/>
-      <name val="Menlo"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <vertAlign val="superscript"/>
       <sz val="10"/>
@@ -1326,7 +1340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2684,17 +2698,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="26.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="26.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="28.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="29.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="4" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,90 +2719,114 @@
       <c r="B1" s="5" t="s">
         <v>239</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>253</v>
+        <v>259</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>210</v>
@@ -2795,34 +2834,34 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Info.xlsx
+++ b/SA_Info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="283">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -877,7 +877,13 @@
     <t xml:space="preserve">Order ID -2 </t>
   </si>
   <si>
+    <t xml:space="preserve">payment reference number</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[2]/div/div[2]/div[1]/div[2]</t>
   </si>
   <si>
     <t xml:space="preserve">Activation date Timeline</t>
@@ -916,25 +922,49 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">payment type</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[2]/div[2]/div[2]</t>
   </si>
   <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[2]/div/div[2]/div[2]/div[2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">In progress UI date</t>
   </si>
   <si>
     <t xml:space="preserve">order tracking link 2</t>
   </si>
   <si>
+    <t xml:space="preserve">payment mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[3]/div[2]/div[4]/div[2]</t>
   </si>
   <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div/div[2]/div/div/div[2]/div[1]/div[1]/div[2]/a</t>
   </si>
   <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[2]/div/div[2]/div[3]/div[2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">In progress Timeline date</t>
   </si>
   <si>
+    <t xml:space="preserve">payment SLA</t>
+  </si>
+  <si>
     <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[3]/div/div/div/div/div/div/div[1]/div[3]/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[2]/div/div[2]/div[5]/div[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="root"]/div/div[4]/div[1]/div/div/div/div[2]/div[1]/div[3]/div[2]/div[2]/div/div[2]/div[6]/div[2]</t>
   </si>
 </sst>
 </file>
@@ -2698,10 +2728,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2807,61 +2837,95 @@
       <c r="B9" s="5" t="s">
         <v>262</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>210</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>259</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
